--- a/doc/工作周报/[D100001305]系统功能实施计划表.xlsx
+++ b/doc/工作周报/[D100001305]系统功能实施计划表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t>计划开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,33 +413,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据核算公式计算订单价格尚未开发</t>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打印功能尚未开发</t>
-  </si>
-  <si>
-    <t>打印功能尚未开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面与后台代码已开发，尚未对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面已开发，后台代码尚未开发</t>
-  </si>
-  <si>
-    <t>页面已开发，后台代码尚未开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台代码已开发，前台尚未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>有些细节问题尚未处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9046,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9382,7 +9360,9 @@
       <c r="D20" s="3">
         <v>43217</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -9591,10 +9571,10 @@
         <v>43225</v>
       </c>
       <c r="E34" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -9609,7 +9589,7 @@
         <v>43228</v>
       </c>
       <c r="E35" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>83</v>
@@ -9626,12 +9606,10 @@
       <c r="D36" s="3">
         <v>43230</v>
       </c>
-      <c r="E36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="E36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
@@ -9774,7 +9752,9 @@
       <c r="D45" s="3">
         <v>43231</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -13591,7 +13571,7 @@
   <dimension ref="A1:F499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13637,11 +13617,9 @@
         <v>43231</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
@@ -13654,12 +13632,10 @@
       <c r="D3" s="3">
         <v>43236</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="E3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -13672,12 +13648,10 @@
       <c r="D4" s="3">
         <v>43238</v>
       </c>
-      <c r="E4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="E4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -13692,12 +13666,10 @@
       <c r="D5" s="3">
         <v>43229</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
@@ -13711,11 +13683,9 @@
         <v>43231</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -13728,12 +13698,10 @@
       <c r="D7" s="3">
         <v>43236</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -13746,12 +13714,10 @@
       <c r="D8" s="3">
         <v>43238</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -13764,12 +13730,10 @@
       <c r="D9" s="3">
         <v>43242</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -13782,12 +13746,10 @@
       <c r="D10" s="3">
         <v>43245</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -13800,12 +13762,10 @@
       <c r="D11" s="3">
         <v>43249</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -13820,12 +13780,10 @@
       <c r="D12" s="3">
         <v>43231</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -13838,12 +13796,10 @@
       <c r="D13" s="3">
         <v>43236</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -13856,12 +13812,10 @@
       <c r="D14" s="3">
         <v>43238</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -13874,12 +13828,10 @@
       <c r="D15" s="3">
         <v>43229</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>

--- a/doc/工作周报/[D100001305]系统功能实施计划表.xlsx
+++ b/doc/工作周报/[D100001305]系统功能实施计划表.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>计划开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9024,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9850,7 +9850,9 @@
       <c r="D51" s="3">
         <v>43236</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -9862,7 +9864,9 @@
       <c r="D52" s="3">
         <v>43238</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9874,7 +9878,9 @@
       <c r="D53" s="3">
         <v>43242</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -9886,7 +9892,9 @@
       <c r="D54" s="3">
         <v>43245</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
